--- a/manuals/Centurion Puzzle Difficulty.xlsx
+++ b/manuals/Centurion Puzzle Difficulty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnsonmr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnsonmr\Documents\Coding\Java\4ShitesNGigs\GradleCenturion\manuals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767CE469-7A32-43B0-A238-C416E7F86B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34813CC-24A7-4ABC-843D-EA5C4B91F3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17755" yWindow="3444" windowWidth="21377" windowHeight="10808" xr2:uid="{AA632EFA-B76A-482A-A793-45E24200B6D4}"/>
+    <workbookView xWindow="15083" yWindow="2524" windowWidth="21377" windowHeight="10807" xr2:uid="{AA632EFA-B76A-482A-A793-45E24200B6D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="107">
   <si>
     <t>3D Maze</t>
   </si>
@@ -350,13 +350,19 @@
   </si>
   <si>
     <t>Button Sequence</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +382,12 @@
       <name val="Source Code Pro"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="17.5"/>
+      <color theme="1"/>
+      <name val="Source Code Pro"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -385,10 +397,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -397,17 +420,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <font>
         <strike val="0"/>
@@ -415,8 +445,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="17.5"/>
         <color theme="0"/>
+        <name val="Source Code Pro"/>
+        <family val="3"/>
+        <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -435,6 +470,18 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -454,6 +501,16 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="0"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -488,14 +545,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A09AD33-3A53-4C76-931D-C8294F2F664F}" name="Table1" displayName="Table1" ref="A1:B101" totalsRowShown="0" headerRowDxfId="3" dataDxfId="0">
-  <autoFilter ref="A1:B101" xr:uid="{1A09AD33-3A53-4C76-931D-C8294F2F664F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B101">
-    <sortCondition ref="A1:A101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A09AD33-3A53-4C76-931D-C8294F2F664F}" name="Table1" displayName="Table1" ref="A1:C101" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C101" xr:uid="{1A09AD33-3A53-4C76-931D-C8294F2F664F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C101">
+    <sortCondition ref="B1:B101"/>
   </sortState>
-  <tableColumns count="2">
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{DB690D86-FB72-4726-9062-858E622738A2}" name="Puzzle Name" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{85E74503-5F16-4A7C-A2AA-C00A8752AE2B}" name="Expert Difficulty" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{84B360EC-CE68-47F3-AB37-B6F47BF5EFD2}" name="Done" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -798,817 +856,977 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3339563F-F04B-412D-9138-72FB4A4DDCC0}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="23.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="67.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22.3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="22.3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
+      <c r="C1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="B54" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+      <c r="B55" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+      <c r="B56" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B86" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+      <c r="C86" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B87" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B88" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
+      <c r="C88" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B89" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
+      <c r="C89" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B90" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B91" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B92" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B93" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
+      <c r="C93" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B94" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B95" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B96" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C98" s="2"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B99" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A41" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A44" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A45" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A46" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A47" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A48" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A49" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A50" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A52" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A53" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A54" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A55" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A56" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A57" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A58" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A59" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A60" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A61" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A62" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A63" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A64" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A65" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A66" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A67" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A68" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A69" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A70" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A71" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A72" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A73" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A74" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A75" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A76" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A77" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A78" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A79" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A80" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A81" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A82" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A83" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A84" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A85" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A86" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A87" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A88" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A89" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A90" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A91" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A92" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A93" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A94" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A95" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A96" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A97" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A98" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
-      <c r="A99" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
+      <c r="C99" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
-      <c r="B100" s="2"/>
-    </row>
-    <row r="101" spans="1:2" ht="23.75" x14ac:dyDescent="0.4">
+      <c r="B100" s="4"/>
+      <c r="C100" s="2"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
-      <c r="B101" s="2"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
